--- a/Labs/Lab04/Lab04Rubric.xlsx
+++ b/Labs/Lab04/Lab04Rubric.xlsx
@@ -1,28 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS295N-CourseMaterials/Labs/Lab04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS295N-CourseMaterials/Labs/Lab04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92AD3422-8744-5740-B569-ADAF67DBB53D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95139898-0F92-8D42-B932-B0B0A2913F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="500" windowWidth="17320" windowHeight="14600" activeTab="1"/>
+    <workbookView xWindow="4560" yWindow="500" windowWidth="17320" windowHeight="14600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lab4Rubric" sheetId="1" r:id="rId1"/>
-    <sheet name="Grading BS4" sheetId="2" r:id="rId2"/>
-    <sheet name="Grading BS5" sheetId="3" r:id="rId3"/>
+    <sheet name="Rubric" sheetId="4" r:id="rId1"/>
+    <sheet name="Score" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Responsive</t>
   </si>
@@ -36,9 +48,6 @@
     <t>column</t>
   </si>
   <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
     <t>margin</t>
   </si>
   <si>
@@ -63,12 +72,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Bootstrap 4</t>
-  </si>
-  <si>
-    <t>Bootstrap 5</t>
-  </si>
-  <si>
     <t>form classes</t>
   </si>
   <si>
@@ -78,26 +81,23 @@
     <t>Actual</t>
   </si>
   <si>
-    <t>Bootstrap 4 code</t>
-  </si>
-  <si>
-    <t>Bootstrap 5 code</t>
-  </si>
-  <si>
     <t>Here's the grade breakdown:</t>
   </si>
   <si>
-    <t>Points Possible</t>
-  </si>
-  <si>
-    <t>Lab 4 Grading Rubric</t>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Lab 4 Rubric</t>
+  </si>
+  <si>
+    <t>Points</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -241,9 +241,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -590,18 +605,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -956,32 +972,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CF2548-C356-4F42-A0F8-815D62E77CBD}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -990,492 +1152,137 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B15">
-        <f>SUM(B6:B14)</f>
-        <v>32</v>
+        <f>SUM(B7:B14)</f>
+        <v>25</v>
       </c>
       <c r="C15">
-        <f>SUM(C6:C14)</f>
-        <v>32</v>
+        <f>SUM(C7:C14)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <f xml:space="preserve"> B3 + B4 + B15</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C17">
-        <f xml:space="preserve"> B3 + B4 + C15</f>
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <f>SUM(B6:B13)</f>
-        <v>32</v>
-      </c>
-      <c r="C14">
-        <f>SUM(C6:C13)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <f xml:space="preserve"> B3 + B4 + B14</f>
-        <v>50</v>
-      </c>
-      <c r="C16">
-        <f xml:space="preserve"> C3 + C4 + C14</f>
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <f>SUM(B6:B13)</f>
-        <v>32</v>
-      </c>
-      <c r="C14">
-        <f>SUM(C6:C13)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <f xml:space="preserve"> B3 + B4 + B14</f>
-        <v>50</v>
-      </c>
-      <c r="C16">
-        <f xml:space="preserve"> C3 + C4 + C14</f>
-        <v>50</v>
+        <f xml:space="preserve"> C3 + C4 + C15</f>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Labs/Lab04/Lab04Rubric.xlsx
+++ b/Labs/Lab04/Lab04Rubric.xlsx
@@ -1,40 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS295N-CourseMaterials/Labs/Lab04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS295N-CourseMaterials/Labs/Lab04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95139898-0F92-8D42-B932-B0B0A2913F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE927EC-3F9A-F54A-BAD6-4A831F9C8F9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="500" windowWidth="17320" windowHeight="14600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="500" windowWidth="17320" windowHeight="14600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="4" r:id="rId1"/>
     <sheet name="Score" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>Responsive</t>
   </si>
@@ -91,6 +78,9 @@
   </si>
   <si>
     <t>Points</t>
+  </si>
+  <si>
+    <t>Excellent work!</t>
   </si>
 </sst>
 </file>
@@ -605,7 +595,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -618,6 +608,12 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -975,7 +971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CF2548-C356-4F42-A0F8-815D62E77CBD}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection sqref="A1:B18"/>
     </sheetView>
   </sheetViews>
@@ -1113,89 +1109,99 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B17"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
-    <col min="4" max="4" width="1.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>2</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1203,10 +1209,11 @@
       <c r="C9">
         <v>2</v>
       </c>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1214,32 +1221,35 @@
       <c r="C10">
         <v>2</v>
       </c>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1247,45 +1257,68 @@
       <c r="C13">
         <v>2</v>
       </c>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>3</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15">
-        <f>SUM(B7:B14)</f>
+      <c r="B16">
+        <f>SUM(B8:B15)</f>
         <v>25</v>
       </c>
-      <c r="C15">
-        <f>SUM(C7:C14)</f>
+      <c r="C16">
+        <f>SUM(C8:C15)</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17">
-        <f xml:space="preserve"> B3 + B4 + B15</f>
+      <c r="B18">
+        <f xml:space="preserve"> B4 + B5 + B16</f>
         <v>40</v>
       </c>
-      <c r="C17">
-        <f xml:space="preserve"> C3 + C4 + C15</f>
+      <c r="C18">
+        <f xml:space="preserve"> C4 + C5 + C16</f>
         <v>40</v>
       </c>
+      <c r="E18" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>